--- a/data/trans_bre/P6904-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6904-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P6904-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6904-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-31,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,36%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,74; 57,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,52; 48,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,9; 21,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,16; 44,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,32; 245,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,54; 124,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,02; 44,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,75; 193,08</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,34</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>32,6</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,3</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,64%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,38; 37,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,27; 23,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,0; 53,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,31; -3,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,32; 85,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,55; 46,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,79; 164,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,29; -4,86</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,43%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,37; 12,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,8; 14,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,16; 16,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,06; 10,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,15; 29,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,69; 29,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,37; 27,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,17; 17,8</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,37</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,69</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,16</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,18%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,6; 24,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,58; 0,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 25,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 39,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,65; 48,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,17; 2,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,87; 52,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,88; 147,57</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,97%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,28%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,12; 5,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,58; 25,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,95; 18,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,35; 19,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,51; 12,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,47; 70,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,95; 34,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,4; 35,79</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,64%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,72; 7,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,06; 5,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 15,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,59; 8,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,42; 15,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,8; 11,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 28,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,0; 14,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6904-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6904-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,01</t>
+          <t>14,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,19</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-31,39</t>
+          <t>21,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>-15,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-41,94%</t>
+          <t>41,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>-19,74%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-35,74; 57,08</t>
+          <t>-5,98; 32,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-30,52; 48,79</t>
+          <t>-18,86; 23,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-72,9; 21,9</t>
+          <t>-3,15; 39,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-36,16; 44,08</t>
+          <t>-30,33; -0,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-63,32; 245,4</t>
+          <t>-10,8; 75,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-47,54; 124,74</t>
+          <t>-29,74; 46,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-84,02; 44,66</t>
+          <t>-2,62; 100,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-55,75; 193,08</t>
+          <t>-36,64; -0,47</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,34</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,6</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-19,3</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>-11,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>-5,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>70,0%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-23,64%</t>
+          <t>-3,06%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 37,01</t>
+          <t>-20,37; 12,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 23,6</t>
+          <t>-19,8; 14,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,0; 53,28</t>
+          <t>-16,16; 16,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,31; -3,59</t>
+          <t>-14,67; 10,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 85,44</t>
+          <t>-41,15; 29,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,55; 46,81</t>
+          <t>-30,69; 29,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,79; 164,5</t>
+          <t>-22,37; 27,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,29; -4,86</t>
+          <t>-20,53; 18,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,49</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-18,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>12,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>31,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-11,43%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,92%</t>
+          <t>-32,35%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,43%</t>
+          <t>84,25%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,37; 12,53</t>
+          <t>-10,6; 24,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 14,61</t>
+          <t>-36,58; 0,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 16,39</t>
+          <t>-4,02; 25,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 10,24</t>
+          <t>7,72; 59,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,15; 29,13</t>
+          <t>-16,65; 48,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 29,75</t>
+          <t>-57,17; 2,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 27,69</t>
+          <t>-5,87; 52,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 17,8</t>
+          <t>13,97; 230,73</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>-8,2</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-18,37</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,69</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,16</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>-14,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-32,35%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50,18%</t>
+          <t>10,01%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 24,28</t>
+          <t>-22,12; 5,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,58; 0,43</t>
+          <t>-8,58; 25,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 25,74</t>
+          <t>-14,95; 18,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 39,43</t>
+          <t>-7,31; 19,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,65; 48,01</t>
+          <t>-36,51; 12,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,17; 2,66</t>
+          <t>-16,47; 70,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 52,41</t>
+          <t>-23,95; 34,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 147,57</t>
+          <t>-10,47; 36,21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,64</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-14,97%</t>
+          <t>-0,94%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>-5,77%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>6,17%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 5,72</t>
+          <t>-8,72; 7,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 25,98</t>
+          <t>-12,06; 5,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 18,04</t>
+          <t>-1,05; 15,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 19,65</t>
+          <t>-4,58; 14,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-36,51; 12,2</t>
+          <t>-15,42; 15,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 70,94</t>
+          <t>-20,8; 11,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 34,68</t>
+          <t>-1,7; 28,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 35,79</t>
+          <t>-7,19; 24,61</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-3,17</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>7,65</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-0,94%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-5,77%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>12,85%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,64%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-8,72; 7,71</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-12,06; 5,98</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,05; 15,55</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-6,59; 8,38</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-15,42; 15,7</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-20,8; 11,88</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-1,7; 28,47</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-10,0; 14,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P6904-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6904-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 32,75</t>
+          <t>-8,13; 34,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,86; 23,93</t>
+          <t>-14,98; 25,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 39,63</t>
+          <t>-2,67; 39,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,33; -0,37</t>
+          <t>-28,8; 1,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 75,34</t>
+          <t>-13,11; 81,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,74; 46,11</t>
+          <t>-22,99; 52,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 100,63</t>
+          <t>-3,77; 101,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-36,64; -0,47</t>
+          <t>-36,95; 1,21</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,37; 12,53</t>
+          <t>-20,97; 11,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 14,61</t>
+          <t>-20,06; 13,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 16,39</t>
+          <t>-15,48; 16,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 10,63</t>
+          <t>-13,99; 13,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,15; 29,13</t>
+          <t>-39,84; 24,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 29,75</t>
+          <t>-30,85; 27,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 27,69</t>
+          <t>-21,28; 27,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,53; 18,28</t>
+          <t>-19,93; 23,94</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 24,28</t>
+          <t>-9,64; 25,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-36,58; 0,43</t>
+          <t>-34,51; -0,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 25,74</t>
+          <t>-3,53; 25,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,72; 59,72</t>
+          <t>7,03; 58,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,65; 48,01</t>
+          <t>-16,29; 52,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-57,17; 2,66</t>
+          <t>-54,98; 0,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 52,41</t>
+          <t>-5,48; 48,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,97; 230,73</t>
+          <t>14,19; 242,95</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 5,72</t>
+          <t>-21,75; 7,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 25,98</t>
+          <t>-10,62; 23,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 18,04</t>
+          <t>-16,3; 18,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 19,17</t>
+          <t>-7,18; 19,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,51; 12,2</t>
+          <t>-36,74; 14,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 70,94</t>
+          <t>-19,31; 62,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 34,68</t>
+          <t>-24,4; 34,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 36,21</t>
+          <t>-10,1; 37,96</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 7,71</t>
+          <t>-9,04; 7,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 5,98</t>
+          <t>-12,72; 5,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 15,55</t>
+          <t>-0,16; 16,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 14,54</t>
+          <t>-4,06; 15,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 15,7</t>
+          <t>-16,13; 15,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,8; 11,88</t>
+          <t>-22,0; 9,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 28,47</t>
+          <t>-0,31; 29,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 24,61</t>
+          <t>-6,5; 27,33</t>
         </is>
       </c>
     </row>
